--- a/u-boot/doc/U-Boot memory map.xlsx
+++ b/u-boot/doc/U-Boot memory map.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>0x00000000</t>
   </si>
@@ -116,9 +116,6 @@
     <t>0x0000FFFF</t>
   </si>
   <si>
-    <t>Product ID,etc.</t>
-  </si>
-  <si>
     <t>File System</t>
   </si>
   <si>
@@ -192,27 +189,41 @@
     <t>SD卡准备时</t>
   </si>
   <si>
+    <t>0x02040000-GD_SIZE</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>DDR code stack</t>
+  </si>
+  <si>
+    <t>0x0203FFFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>0x02040000</t>
-  </si>
-  <si>
-    <t>0x02040000-GD_SIZE</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>DDR code stack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ID,etc.
+(copy_uboot)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,8 +253,15 @@
       <name val="KaiTi"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +304,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2A786"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -393,11 +435,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -414,75 +467,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,39 +518,86 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2A786"/>
+      <color rgb="FFFFEFD3"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -765,11 +838,429 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>141513</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>402770</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右大括号 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8675913" y="947056"/>
+          <a:ext cx="261257" cy="936171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33333"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="任意多边形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9024256" y="1415143"/>
+          <a:ext cx="1186543" cy="5312228"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1164772"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 5354396"/>
+            <a:gd name="connsiteX1" fmla="*/ 195943 w 1164772"/>
+            <a:gd name="connsiteY1" fmla="*/ 1230086 h 5354396"/>
+            <a:gd name="connsiteX2" fmla="*/ 359229 w 1164772"/>
+            <a:gd name="connsiteY2" fmla="*/ 3559628 h 5354396"/>
+            <a:gd name="connsiteX3" fmla="*/ 707572 w 1164772"/>
+            <a:gd name="connsiteY3" fmla="*/ 5116286 h 5354396"/>
+            <a:gd name="connsiteX4" fmla="*/ 1164772 w 1164772"/>
+            <a:gd name="connsiteY4" fmla="*/ 5323114 h 5354396"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1164772" h="5354396">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="68036" y="318407"/>
+                <a:pt x="136072" y="636815"/>
+                <a:pt x="195943" y="1230086"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="255814" y="1823357"/>
+                <a:pt x="273958" y="2911928"/>
+                <a:pt x="359229" y="3559628"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="444500" y="4207328"/>
+                <a:pt x="573315" y="4822372"/>
+                <a:pt x="707572" y="5116286"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="841829" y="5410200"/>
+                <a:pt x="1003300" y="5366657"/>
+                <a:pt x="1164772" y="5323114"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>729448</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>366870</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="梯形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6356130">
+          <a:off x="5178300" y="1124523"/>
+          <a:ext cx="2322118" cy="8781422"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 34885"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="28000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124433</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289135</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右箭头 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1154754">
+          <a:off x="2562833" y="4147508"/>
+          <a:ext cx="774302" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F2A786"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>470981</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="任意多边形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8621486" y="1436914"/>
+          <a:ext cx="383895" cy="1436915"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 348343 w 383895"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1436915"/>
+            <a:gd name="connsiteX1" fmla="*/ 381000 w 383895"/>
+            <a:gd name="connsiteY1" fmla="*/ 533400 h 1436915"/>
+            <a:gd name="connsiteX2" fmla="*/ 283028 w 383895"/>
+            <a:gd name="connsiteY2" fmla="*/ 1077686 h 1436915"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 383895"/>
+            <a:gd name="connsiteY3" fmla="*/ 1436915 h 1436915"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="383895" h="1436915">
+              <a:moveTo>
+                <a:pt x="348343" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="370114" y="176893"/>
+                <a:pt x="391886" y="353786"/>
+                <a:pt x="381000" y="533400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="370114" y="713014"/>
+                <a:pt x="346528" y="927100"/>
+                <a:pt x="283028" y="1077686"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="219528" y="1228272"/>
+                <a:pt x="109764" y="1332593"/>
+                <a:pt x="0" y="1436915"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1037,10 +1528,10 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
@@ -1057,533 +1548,528 @@
     <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="39" t="s">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="15.6">
+      <c r="A1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="15.6">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.6">
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.4" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="13" t="s">
-        <v>10</v>
+      <c r="K4" s="44" t="s">
+        <v>57</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="25"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="33"/>
+      <c r="J5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.4" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="33"/>
       <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:20" ht="14.4" customHeight="1">
       <c r="B7" s="2"/>
-      <c r="C7" s="30"/>
+      <c r="C7" s="21"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="25"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C8" s="30"/>
-      <c r="G8" s="25"/>
-      <c r="J8" s="2" t="s">
+      <c r="G7" s="33"/>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="39"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8" s="21"/>
+      <c r="G8" s="33"/>
+      <c r="K8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" ht="14.4" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="G9" s="25"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="22"/>
+      <c r="G9" s="33"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.4" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="34"/>
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="30"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.4" customHeight="1">
+      <c r="C11" s="21"/>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="20" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.4" customHeight="1">
+      <c r="C12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:20" ht="14.4" customHeight="1">
+      <c r="C15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:20" ht="14.4" customHeight="1">
+      <c r="C16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" ht="14.4" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="G17" s="30"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>42</v>
+      <c r="C18" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="22"/>
       <c r="J18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C19" s="26"/>
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="20" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-      <c r="G20" s="30"/>
-      <c r="K20" s="30"/>
+    <row r="20" spans="2:15">
+      <c r="C20" s="26"/>
+      <c r="G20" s="21"/>
+      <c r="K20" s="21"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="7"/>
-      <c r="G21" s="30"/>
-      <c r="K21" s="30"/>
+    <row r="21" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C21" s="26"/>
+      <c r="G21" s="21"/>
+      <c r="K21" s="21"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C22" s="7"/>
+    <row r="22" spans="2:15">
+      <c r="C22" s="26"/>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="22"/>
       <c r="J22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="31"/>
+      <c r="K22" s="22"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
+    <row r="23" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C23" s="26"/>
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="7"/>
-      <c r="G24" s="34"/>
-      <c r="K24" s="34"/>
+    <row r="24" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C24" s="26"/>
+      <c r="G24" s="29"/>
+      <c r="K24" s="29"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
+    <row r="25" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C25" s="26"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="19"/>
       <c r="J25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="19"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
+    <row r="26" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C26" s="26"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
+    <row r="27" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C27" s="26"/>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="19"/>
       <c r="J27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="19"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="7"/>
+    <row r="28" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C28" s="26"/>
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>29</v>
+      <c r="G28" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>29</v>
+      <c r="K28" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="2:15">
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="C29" s="26"/>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="24"/>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="14"/>
+      <c r="K29" s="24"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="2:15">
       <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="C31" s="27"/>
+      <c r="G31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C32" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="J32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15" ht="14.4" customHeight="1">
+      <c r="C33" s="27"/>
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="C34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="N34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="17"/>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="J35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="N35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-      <c r="G31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="24"/>
-      <c r="J32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="24"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="10"/>
-      <c r="F33" s="2" t="s">
+    </row>
+    <row r="36" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="17"/>
+      <c r="F36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C34" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="N34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="15"/>
-      <c r="F35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="24"/>
-      <c r="J35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="24"/>
-      <c r="N35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="15"/>
-      <c r="F36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>38</v>
-      </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
-      <c r="G37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="C37" s="17"/>
+      <c r="G37" s="13"/>
+      <c r="K37" s="13"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C38" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="O37" s="26"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="C38" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="N38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C39" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="O38" s="40"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="C39" s="16"/>
       <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="14"/>
       <c r="J39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="24"/>
+      <c r="K39" s="14"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="33"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C40" s="28"/>
+      <c r="O39" s="41"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="C40" s="16"/>
       <c r="F40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="22" t="s">
-        <v>36</v>
+      <c r="G40" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="22" t="s">
-        <v>36</v>
+      <c r="K40" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="16"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C41" s="28"/>
-      <c r="G41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="O40" s="42"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="C41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="16"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C42" s="28"/>
+      <c r="O41" s="42"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="C42" s="16"/>
       <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="14"/>
       <c r="J42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="24"/>
+      <c r="K42" s="14"/>
       <c r="N42" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O42" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="O42" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="35">
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="K40:K42"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="K11:K18"/>
     <mergeCell ref="K19:K22"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="K26:K27"/>
@@ -1593,6 +2079,13 @@
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="K33:K35"/>
     <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="K11:K18"/>
+    <mergeCell ref="G40:G42"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="C4:C5"/>
@@ -1608,11 +2101,10 @@
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G40:G42"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/u-boot/doc/U-Boot memory map.xlsx
+++ b/u-boot/doc/U-Boot memory map.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="x4412 u-boot memory mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="U-Boot Driver Module" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'x4412 u-boot memory mapping'!$A$2:$U$43</definedName>
@@ -223,7 +224,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -255,7 +256,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,6 +486,21 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,6 +510,63 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,31 +577,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,57 +585,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1259,8 +1260,1625 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>608524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1218124" y="2727960"/>
+          <a:ext cx="1829876" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12493"/>
+            <a:gd name="adj2" fmla="val 20833"/>
+            <a:gd name="adj3" fmla="val 112493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Group 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1127760" y="2019300"/>
+          <a:ext cx="1920240" cy="784860"/>
+          <a:chOff x="3230880" y="617220"/>
+          <a:chExt cx="1943100" cy="784860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="792480"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>void *priv</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="944880"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct uclass_driver *uc_drv</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="1097280"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct list_head dev_head</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="1249680"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct list_head sibling_node</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3230880" y="617220"/>
+            <a:ext cx="601436" cy="167640"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>uclass</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="Group 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1127760" y="2933700"/>
+          <a:ext cx="1920240" cy="784860"/>
+          <a:chOff x="3230880" y="617220"/>
+          <a:chExt cx="1943100" cy="784860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="792480"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>void *priv</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="944880"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct uclass_driver *uc_drv</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="1097280"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct list_head dev_head</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="1249680"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct list_head sibling_node</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3230880" y="617220"/>
+            <a:ext cx="586014" cy="182880"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>uclass</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1127760" y="3840480"/>
+          <a:ext cx="1920240" cy="784860"/>
+          <a:chOff x="3230880" y="617220"/>
+          <a:chExt cx="1943100" cy="784860"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rectangle 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="792480"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>void *priv</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rectangle 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="944880"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct uclass_driver *uc_drv</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rectangle 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="1097280"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct list_head dev_head</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3322320" y="1249680"/>
+            <a:ext cx="1851660" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>struct list_head sibling_node</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Rectangle 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3230880" y="617220"/>
+            <a:ext cx="624568" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>uclass</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>608524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Elbow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1218124" y="3642360"/>
+          <a:ext cx="1829876" cy="906780"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12493"/>
+            <a:gd name="adj2" fmla="val 20589"/>
+            <a:gd name="adj3" fmla="val 112493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580196</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Group 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4175760" y="182880"/>
+          <a:ext cx="2500436" cy="1699260"/>
+          <a:chOff x="6096000" y="365760"/>
+          <a:chExt cx="2500436" cy="1699260"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Rectangle 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6186364" y="548640"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>const char *name</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Rectangle 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6186364" y="701040"/>
+            <a:ext cx="2408996" cy="144780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>enum uclass_id id</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Rectangle 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6186364" y="845820"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>int (*post_bind)(struct udevice *dev)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Rectangle 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6186364" y="998220"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>int (*pre_unbind)(struct udevice *dev)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Rectangle 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6096000" y="365760"/>
+            <a:ext cx="1021080" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>uclass_driver</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Rectangle 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187440" y="1150620"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>……</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Rectangle 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187440" y="1303020"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>int priv_auto_alloc_size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Rectangle 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187440" y="1455420"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>int per_device_auto_alloc_size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Rectangle 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187440" y="1607820"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>……</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Rectangle 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187440" y="1760220"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>const void *ops</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="Rectangle 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6187440" y="1912620"/>
+            <a:ext cx="2408996" cy="152400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="6350">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>uint32_t flags</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1527,7 +3145,7 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1556,27 +3174,27 @@
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="15.6">
       <c r="C2" s="3" t="s">
@@ -1605,14 +3223,14 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="33" t="s">
         <v>57</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -1623,13 +3241,13 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="25"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="37"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1">
       <c r="B6" s="2" t="s">
@@ -1639,11 +3257,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="37"/>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1651,16 +3269,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="21"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="37"/>
       <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="39"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:20">
       <c r="C8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="K8" s="37" t="s">
+      <c r="G8" s="37"/>
+      <c r="K8" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1669,8 +3287,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="G9" s="33"/>
-      <c r="K9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -1682,11 +3300,11 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="38"/>
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:20" ht="14.4" customHeight="1">
       <c r="C11" s="21"/>
@@ -1740,7 +3358,7 @@
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1753,7 +3371,7 @@
       <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C19" s="26"/>
+      <c r="C19" s="27"/>
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1768,19 +3386,19 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="C20" s="26"/>
+      <c r="C20" s="27"/>
       <c r="G20" s="21"/>
       <c r="K20" s="21"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="G21" s="21"/>
       <c r="K21" s="21"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1792,79 +3410,79 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C23" s="26"/>
+      <c r="C23" s="27"/>
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="23" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C24" s="26"/>
-      <c r="G24" s="29"/>
-      <c r="K24" s="29"/>
+      <c r="C24" s="27"/>
+      <c r="G24" s="24"/>
+      <c r="K24" s="24"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C25" s="26"/>
+      <c r="C25" s="27"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="25"/>
       <c r="J25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="19"/>
+      <c r="K25" s="25"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C27" s="26"/>
+      <c r="C27" s="27"/>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="25"/>
       <c r="J27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="19"/>
+      <c r="K27" s="25"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C28" s="26"/>
+      <c r="C28" s="27"/>
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="23" t="s">
         <v>59</v>
       </c>
       <c r="N28" s="2"/>
@@ -1874,15 +3492,15 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="27"/>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="32"/>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="24"/>
+      <c r="K29" s="32"/>
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
@@ -1890,69 +3508,69 @@
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="42" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="17" t="s">
         <v>37</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="27"/>
-      <c r="G31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="C31" s="43"/>
+      <c r="G31" s="18"/>
+      <c r="K31" s="18"/>
       <c r="N31" s="2"/>
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="44" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="19"/>
       <c r="J32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="14"/>
+      <c r="K32" s="19"/>
       <c r="N32" s="2"/>
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C33" s="27"/>
+      <c r="C33" s="43"/>
       <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="G34" s="18"/>
+      <c r="K34" s="18"/>
       <c r="N34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1960,131 +3578,112 @@
     </row>
     <row r="35" spans="2:15" ht="14.4" customHeight="1">
       <c r="B35" s="2"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="41"/>
       <c r="F35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="19"/>
       <c r="J35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="14"/>
+      <c r="K35" s="19"/>
       <c r="N35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="14.4" customHeight="1">
       <c r="B36" s="2"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="41"/>
       <c r="F36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="17" t="s">
         <v>37</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="26"/>
+      <c r="O36" s="27"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="C37" s="17"/>
-      <c r="G37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="C37" s="41"/>
+      <c r="G37" s="18"/>
+      <c r="K37" s="18"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="26"/>
+      <c r="O37" s="27"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="G38" s="18"/>
+      <c r="K38" s="18"/>
       <c r="N38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="40"/>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="C39" s="16"/>
+      <c r="C39" s="40"/>
       <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="19"/>
       <c r="J39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="14"/>
+      <c r="K39" s="19"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="41"/>
+      <c r="O39" s="29"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="C40" s="16"/>
+      <c r="C40" s="40"/>
       <c r="F40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="17" t="s">
         <v>35</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="17" t="s">
         <v>35</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="42"/>
+      <c r="O40" s="30"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="C41" s="16"/>
-      <c r="G41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="C41" s="40"/>
+      <c r="G41" s="18"/>
+      <c r="K41" s="18"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="42"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="C42" s="16"/>
+      <c r="C42" s="40"/>
       <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="14"/>
+      <c r="G42" s="19"/>
       <c r="J42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="14"/>
+      <c r="K42" s="19"/>
       <c r="N42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O42" s="43"/>
+      <c r="O42" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="K11:K18"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C34:C37"/>
@@ -2101,10 +3700,45 @@
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="K11:K18"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/u-boot/doc/U-Boot memory map.xlsx
+++ b/u-boot/doc/U-Boot memory map.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="x4412 u-boot memory mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="U-Boot Driver Module" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'x4412 u-boot memory mapping'!$A$2:$U$43</definedName>
@@ -486,21 +485,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,6 +493,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -519,20 +518,56 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,43 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,1623 +1259,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>608524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1218124" y="2727960"/>
-          <a:ext cx="1829876" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -12493"/>
-            <a:gd name="adj2" fmla="val 20833"/>
-            <a:gd name="adj3" fmla="val 112493"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="5" name="Group 4"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1127760" y="2019300"/>
-          <a:ext cx="1920240" cy="784860"/>
-          <a:chOff x="3230880" y="617220"/>
-          <a:chExt cx="1943100" cy="784860"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="792480"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>void *priv</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="944880"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct uclass_driver *uc_drv</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="1097280"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct list_head dev_head</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="1249680"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct list_head sibling_node</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3230880" y="617220"/>
-            <a:ext cx="601436" cy="167640"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>uclass</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="Group 10"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1127760" y="2933700"/>
-          <a:ext cx="1920240" cy="784860"/>
-          <a:chOff x="3230880" y="617220"/>
-          <a:chExt cx="1943100" cy="784860"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="792480"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>void *priv</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="944880"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct uclass_driver *uc_drv</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="1097280"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct list_head dev_head</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="1249680"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct list_head sibling_node</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3230880" y="617220"/>
-            <a:ext cx="586014" cy="182880"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>uclass</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1127760" y="3840480"/>
-          <a:ext cx="1920240" cy="784860"/>
-          <a:chOff x="3230880" y="617220"/>
-          <a:chExt cx="1943100" cy="784860"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Rectangle 19"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="792480"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>void *priv</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Rectangle 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="944880"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct uclass_driver *uc_drv</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectangle 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="1097280"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct list_head dev_head</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rectangle 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3322320" y="1249680"/>
-            <a:ext cx="1851660" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>struct list_head sibling_node</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectangle 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3230880" y="617220"/>
-            <a:ext cx="624568" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>uclass</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>608524</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Elbow Connector 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="3"/>
-          <a:endCxn id="23" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1218124" y="3642360"/>
-          <a:ext cx="1829876" cy="906780"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -12493"/>
-            <a:gd name="adj2" fmla="val 20589"/>
-            <a:gd name="adj3" fmla="val 112493"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>580196</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4175760" y="182880"/>
-          <a:ext cx="2500436" cy="1699260"/>
-          <a:chOff x="6096000" y="365760"/>
-          <a:chExt cx="2500436" cy="1699260"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 44"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6186364" y="548640"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>const char *name</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Rectangle 45"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6186364" y="701040"/>
-            <a:ext cx="2408996" cy="144780"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>enum uclass_id id</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="Rectangle 46"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6186364" y="845820"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>int (*post_bind)(struct udevice *dev)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="Rectangle 47"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6186364" y="998220"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>int (*pre_unbind)(struct udevice *dev)</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Rectangle 48"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6096000" y="365760"/>
-            <a:ext cx="1021080" cy="205740"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>uclass_driver</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Rectangle 49"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6187440" y="1150620"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>……</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="Rectangle 50"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6187440" y="1303020"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>int priv_auto_alloc_size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="Rectangle 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6187440" y="1455420"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>int per_device_auto_alloc_size</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="Rectangle 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6187440" y="1607820"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>……</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="Rectangle 53"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6187440" y="1760220"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>const void *ops</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="Rectangle 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6187440" y="1912620"/>
-            <a:ext cx="2408996" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>uint32_t flags</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3145,7 +1527,7 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -3174,27 +1556,27 @@
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="8"/>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
       <c r="Q1" s="8"/>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="15.6">
       <c r="C2" s="3" t="s">
@@ -3223,14 +1605,14 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="44" t="s">
         <v>57</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -3241,13 +1623,13 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="19"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="37"/>
+      <c r="G5" s="33"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="14.4" customHeight="1">
       <c r="B6" s="2" t="s">
@@ -3257,11 +1639,11 @@
         <v>4</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="33"/>
       <c r="J6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="37" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3269,16 +1651,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="21"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="33"/>
       <c r="J7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="16"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:20">
       <c r="C8" s="21"/>
-      <c r="G8" s="37"/>
-      <c r="K8" s="14" t="s">
+      <c r="G8" s="33"/>
+      <c r="K8" s="37" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3287,8 +1669,8 @@
         <v>3</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="G9" s="37"/>
-      <c r="K9" s="15"/>
+      <c r="G9" s="33"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1">
       <c r="B10" s="2" t="s">
@@ -3300,11 +1682,11 @@
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="38"/>
+      <c r="G10" s="34"/>
       <c r="J10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="16"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:20" ht="14.4" customHeight="1">
       <c r="C11" s="21"/>
@@ -3358,7 +1740,7 @@
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3371,7 +1753,7 @@
       <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
@@ -3386,19 +1768,19 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="C20" s="27"/>
+      <c r="C20" s="25"/>
       <c r="G20" s="21"/>
       <c r="K20" s="21"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C21" s="27"/>
+      <c r="C21" s="25"/>
       <c r="G21" s="21"/>
       <c r="K21" s="21"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="27"/>
+      <c r="C22" s="25"/>
       <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3410,79 +1792,79 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C23" s="27"/>
+      <c r="C23" s="25"/>
       <c r="F23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="18" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C24" s="27"/>
-      <c r="G24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="G24" s="29"/>
+      <c r="K24" s="29"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C25" s="27"/>
+      <c r="C25" s="25"/>
       <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="19"/>
       <c r="J25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="19"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C26" s="27"/>
+      <c r="C26" s="25"/>
       <c r="F26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C27" s="27"/>
+      <c r="C27" s="25"/>
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="19"/>
       <c r="J27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K27" s="25"/>
+      <c r="K27" s="19"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C28" s="27"/>
+      <c r="C28" s="25"/>
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="18" t="s">
         <v>59</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="18" t="s">
         <v>59</v>
       </c>
       <c r="N28" s="2"/>
@@ -3492,15 +1874,15 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="25"/>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="32"/>
+      <c r="G29" s="23"/>
       <c r="J29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="32"/>
+      <c r="K29" s="23"/>
       <c r="N29" s="2"/>
       <c r="O29" s="6"/>
     </row>
@@ -3508,69 +1890,69 @@
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="43"/>
-      <c r="G31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="C31" s="27"/>
+      <c r="G31" s="13"/>
+      <c r="K31" s="13"/>
       <c r="N31" s="2"/>
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="28" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="14"/>
       <c r="J32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="19"/>
+      <c r="K32" s="14"/>
       <c r="N32" s="2"/>
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C33" s="43"/>
+      <c r="C33" s="27"/>
       <c r="F33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="G34" s="13"/>
+      <c r="K34" s="13"/>
       <c r="N34" s="2" t="s">
         <v>44</v>
       </c>
@@ -3578,112 +1960,131 @@
     </row>
     <row r="35" spans="2:15" ht="14.4" customHeight="1">
       <c r="B35" s="2"/>
-      <c r="C35" s="41"/>
+      <c r="C35" s="17"/>
       <c r="F35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="14"/>
       <c r="J35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="19"/>
+      <c r="K35" s="14"/>
       <c r="N35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="14.4" customHeight="1">
       <c r="B36" s="2"/>
-      <c r="C36" s="41"/>
+      <c r="C36" s="17"/>
       <c r="F36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="27"/>
+      <c r="O36" s="25"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="C37" s="41"/>
-      <c r="G37" s="18"/>
-      <c r="K37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="G37" s="13"/>
+      <c r="K37" s="13"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="27"/>
+      <c r="O37" s="25"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="K38" s="18"/>
+      <c r="G38" s="13"/>
+      <c r="K38" s="13"/>
       <c r="N38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O38" s="28"/>
+      <c r="O38" s="40"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="C39" s="40"/>
+      <c r="C39" s="16"/>
       <c r="F39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="14"/>
       <c r="J39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="19"/>
+      <c r="K39" s="14"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="29"/>
+      <c r="O39" s="41"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="C40" s="40"/>
+      <c r="C40" s="16"/>
       <c r="F40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="12" t="s">
         <v>35</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="30"/>
+      <c r="O40" s="42"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="C41" s="40"/>
-      <c r="G41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="G41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="30"/>
+      <c r="O41" s="42"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="C42" s="40"/>
+      <c r="C42" s="16"/>
       <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="14"/>
       <c r="J42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="19"/>
+      <c r="K42" s="14"/>
       <c r="N42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O42" s="31"/>
+      <c r="O42" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="K11:K18"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C34:C37"/>
@@ -3700,45 +2101,10 @@
     <mergeCell ref="C10:C17"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="G5:G10"/>
-    <mergeCell ref="K11:K18"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="O35:O38"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/u-boot/doc/U-Boot memory map.xlsx
+++ b/u-boot/doc/U-Boot memory map.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>0x00000000</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0x203FFF40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Reserved
 (512B)</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -156,23 +152,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0x02050000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>copy buffer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Not Used</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>U-Boot
-(512KB)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIG_SYS_INIT_SP_ADDR</t>
   </si>
   <si>
@@ -200,6 +183,25 @@
   </si>
   <si>
     <t xml:space="preserve">0x02023400 : </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x203FFF40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-Boot
+(512KB)
+Stack &amp; GD are still in iROM.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-Boot
+(Actual size)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux Kernel</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -324,12 +326,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -459,26 +461,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,35 +491,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -546,36 +515,78 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,41 +596,29 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,125 +838,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="任意多边形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8632372" y="1621971"/>
-          <a:ext cx="1578428" cy="5072743"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 1164772"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 5354396"/>
-            <a:gd name="connsiteX1" fmla="*/ 195943 w 1164772"/>
-            <a:gd name="connsiteY1" fmla="*/ 1230086 h 5354396"/>
-            <a:gd name="connsiteX2" fmla="*/ 359229 w 1164772"/>
-            <a:gd name="connsiteY2" fmla="*/ 3559628 h 5354396"/>
-            <a:gd name="connsiteX3" fmla="*/ 707572 w 1164772"/>
-            <a:gd name="connsiteY3" fmla="*/ 5116286 h 5354396"/>
-            <a:gd name="connsiteX4" fmla="*/ 1164772 w 1164772"/>
-            <a:gd name="connsiteY4" fmla="*/ 5323114 h 5354396"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="1164772" h="5354396">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="68036" y="318407"/>
-                <a:pt x="136072" y="636815"/>
-                <a:pt x="195943" y="1230086"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="255814" y="1823357"/>
-                <a:pt x="273958" y="2911928"/>
-                <a:pt x="359229" y="3559628"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="444500" y="4207328"/>
-                <a:pt x="573315" y="4822372"/>
-                <a:pt x="707572" y="5116286"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="841829" y="5410200"/>
-                <a:pt x="1003300" y="5366657"/>
-                <a:pt x="1164772" y="5323114"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1214923</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -1024,31 +904,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>337459</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1077686</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>576942</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8392886" y="6727371"/>
+          <a:ext cx="1926771" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158453</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>62040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>530319</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104190</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvPr id="2" name="平行四边形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5823859" y="1110343"/>
-          <a:ext cx="1458683" cy="489857"/>
+        <a:xfrm rot="1130948">
+          <a:off x="12350453" y="453926"/>
+          <a:ext cx="371866" cy="6736864"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 0"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="F2A786">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1070,67 +1003,405 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>222337</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>512674</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97146</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右箭头 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17428042">
+          <a:off x="11449737" y="5428065"/>
+          <a:ext cx="1000338" cy="290337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F2A786">
+            <a:alpha val="60000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87088</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8153400" y="8469086"/>
+          <a:ext cx="2383971" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>925286</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11288486" y="8479972"/>
+          <a:ext cx="2383971" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>337458</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7859486" y="8621485"/>
+          <a:ext cx="2841172" cy="1295401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>void board_init_f(unsigned long bootflag)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     copy_uboot_to_ram(); </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     /* Jump to U-Boot image */ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>     uboot = (void *)CONFIG_SYS_TEXT_BASE; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
             </a:rPr>
-            <a:t>X4412</a:t>
+            <a:t> (*uboot)(); /* Never returns Here */</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>} </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>794657</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11157857" y="8621487"/>
+          <a:ext cx="2841172" cy="1828799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ENTRY(_main)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ldr r9, [r9, #GD_BD] /* r9 = gd-&gt;bd */ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>sub r9, r9, #GD_SIZE /* new GD is below bd */ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
             </a:rPr>
-            <a:t>移植代码使用</a:t>
+            <a:t>adr lr, here ldr r0</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-            <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>, [r9, #GD_RELOC_OFF] /* </a:t>
+          </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>r0 = gd-&gt;reloc_off */ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>add lr, lr, r0 ldr r0, [r9, #GD_RELOCADDR] /* r0 = gd-&gt;relocaddr */ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
             </a:rPr>
-            <a:t>    </a:t>
+            <a:t>b relocate_code </a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-            </a:rPr>
-            <a:t>　　　↓</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>...</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-            <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-          </a:endParaRPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1450,8 +1721,8 @@
   </sheetPr>
   <dimension ref="A1:T89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1473,33 +1744,33 @@
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" ht="15.6">
       <c r="A1" s="7"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="F1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="J1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
     </row>
     <row r="2" spans="1:20" s="3" customFormat="1" ht="15.6">
       <c r="C2" s="3" t="s">
@@ -1522,459 +1793,549 @@
     </row>
     <row r="3" spans="1:20">
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="R3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>36</v>
+      <c r="G4" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="39" t="s">
-        <v>41</v>
+      <c r="K4" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="S4" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C5" s="37"/>
-      <c r="G5" s="32"/>
+      <c r="C5" s="27"/>
+      <c r="G5" s="31"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="32"/>
+      <c r="K5" s="49"/>
+      <c r="O5" s="12"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="15.6">
-      <c r="C6" s="37"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="27"/>
+      <c r="G6" s="31"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="32"/>
+      <c r="K6" s="49"/>
+      <c r="O6" s="12"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C7" s="37"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="27"/>
+      <c r="G7" s="31"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="32"/>
+      <c r="K7" s="49"/>
+      <c r="O7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C8" s="37"/>
-      <c r="G8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="G8" s="31"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="31"/>
+      <c r="K8" s="49"/>
+      <c r="O8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>40</v>
-      </c>
+      <c r="G9" s="31"/>
+      <c r="K9" s="49"/>
+      <c r="O9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C10" s="38"/>
-      <c r="G10" s="32"/>
-      <c r="K10" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="C10" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="K10" s="49"/>
+      <c r="O10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.6">
-      <c r="C11" s="38"/>
-      <c r="G11" s="32"/>
+      <c r="C11" s="28"/>
+      <c r="G11" s="31"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="49"/>
+      <c r="O11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:20" ht="15.6">
-      <c r="C12" s="38"/>
-      <c r="G12" s="32"/>
+      <c r="C12" s="28"/>
+      <c r="G12" s="31"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="14"/>
+      <c r="K12" s="49"/>
+      <c r="O12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="K13" s="14"/>
+      <c r="G13" s="31"/>
+      <c r="K13" s="49"/>
+      <c r="O13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:20" ht="14.4" customHeight="1">
-      <c r="C14" s="42"/>
+      <c r="C14" s="30"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="32"/>
-      <c r="K14" s="14"/>
+      <c r="G14" s="31"/>
+      <c r="K14" s="49"/>
+      <c r="O14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:20" ht="14.4" customHeight="1">
       <c r="B15" s="2"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="32"/>
+      <c r="G15" s="31"/>
       <c r="J15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="50"/>
+      <c r="O15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:20" ht="14.4" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="32"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="32"/>
-      <c r="K16" s="43" t="s">
+      <c r="G16" s="31"/>
+      <c r="K16" s="46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C17" s="25" t="s">
+      <c r="O16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="32"/>
+      <c r="G17" s="31"/>
       <c r="J17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="C18" s="26"/>
-      <c r="G18" s="32"/>
-      <c r="K18" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C19" s="26"/>
-      <c r="G19" s="32"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="C20" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="O17" s="12"/>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="C18" s="21"/>
+      <c r="G18" s="31"/>
+      <c r="K18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C19" s="21"/>
+      <c r="G19" s="31"/>
+      <c r="K19" s="40"/>
+      <c r="O19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="C20" s="21"/>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="39"/>
       <c r="J20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="24"/>
+      <c r="K20" s="17"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C21" s="26"/>
-      <c r="G21" s="19" t="s">
+      <c r="O20" s="12"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C21" s="21"/>
+      <c r="G21" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="13" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C22" s="26"/>
-      <c r="G22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="O21" s="12"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C22" s="21"/>
+      <c r="G22" s="14"/>
+      <c r="K22" s="14"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C23" s="26"/>
-      <c r="G23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="O22" s="12"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C23" s="21"/>
+      <c r="G23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C24" s="26"/>
-      <c r="G24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="O23" s="12"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C24" s="21"/>
+      <c r="G24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C25" s="26"/>
-      <c r="G25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="O24" s="12"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C25" s="21"/>
+      <c r="G25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C26" s="26"/>
-      <c r="G26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="O25" s="12"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C26" s="21"/>
+      <c r="G26" s="14"/>
+      <c r="K26" s="14"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="C27" s="26"/>
-      <c r="G27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="O26" s="12"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="C27" s="21"/>
+      <c r="G27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="O27" s="12"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="21"/>
       <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="15"/>
       <c r="J28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="15"/>
       <c r="N28" s="2"/>
       <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="R28" s="2"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="2"/>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="13" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="K30" s="20"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="K30" s="14"/>
       <c r="N30" s="2"/>
       <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="2:15" ht="14.4" customHeight="1">
-      <c r="C31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="K31" s="20"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="2:19" ht="14.4" customHeight="1">
+      <c r="C31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="K31" s="14"/>
       <c r="N31" s="2"/>
       <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="C32" s="20"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="C32" s="14"/>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="21"/>
+      <c r="G32" s="15"/>
       <c r="J32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="15"/>
       <c r="N32" s="2"/>
       <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.4" customHeight="1">
-      <c r="C33" s="20"/>
-      <c r="G33" s="22" t="s">
+      <c r="R32" s="2"/>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" ht="14.4" customHeight="1">
+      <c r="C33" s="14"/>
+      <c r="G33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="16" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.4" customHeight="1">
-      <c r="C34" s="20"/>
-      <c r="G34" s="23"/>
-      <c r="K34" s="23"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" ht="14.4" customHeight="1">
+      <c r="C34" s="14"/>
+      <c r="G34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="N34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="C35" s="20"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" ht="14.4" customHeight="1">
+      <c r="C35" s="14"/>
       <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="17"/>
       <c r="J35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="24"/>
+      <c r="K35" s="17"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="O35" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="2"/>
+      <c r="S35" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="G36" s="22" t="s">
+      <c r="C36" s="15"/>
+      <c r="G36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="16" t="s">
         <v>14</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="26"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="O36" s="21"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="B37" s="2"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="17"/>
       <c r="J37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="24"/>
+      <c r="K37" s="17"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="26"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="O37" s="21"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="24"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="B38" s="2"/>
-      <c r="C38" s="20"/>
-      <c r="G38" s="22" t="s">
+      <c r="C38" s="14"/>
+      <c r="G38" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="16" t="s">
         <v>32</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O38" s="27"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="C39" s="20"/>
+      <c r="O38" s="22"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="24"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="C39" s="14"/>
       <c r="F39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="31"/>
+      <c r="G39" s="39"/>
       <c r="J39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="31"/>
+      <c r="K39" s="39"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="28"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="O39" s="33"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="24"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="G40" s="16" t="s">
+      <c r="C40" s="15"/>
+      <c r="G40" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="36" t="s">
         <v>19</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="29"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="O40" s="34"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="24"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="B41" s="2"/>
-      <c r="C41" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="C41" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="K41" s="37"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="29"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="O41" s="34"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="24"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="B42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="17"/>
       <c r="F42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="38"/>
       <c r="J42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K42" s="18"/>
+      <c r="K42" s="38"/>
       <c r="N42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="30"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="46"/>
-      <c r="B46" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="46" t="s">
+      <c r="O42" s="35"/>
+      <c r="R42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="25"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="46" t="s">
+      <c r="C48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="65" ht="14.4" customHeight="1"/>
     <row r="77" ht="14.4" customHeight="1"/>
     <row r="85" ht="14.4" customHeight="1"/>
     <row r="89" ht="14.4" customHeight="1"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K4:K15"/>
+    <mergeCell ref="G4:G20"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G42"/>
-    <mergeCell ref="K4:K8"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="G4:G20"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="K21:K28"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S35:S42"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C41:C42"/>
     <mergeCell ref="O35:O38"/>
     <mergeCell ref="O39:O42"/>
     <mergeCell ref="K40:K42"/>
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="G21:G28"/>
-    <mergeCell ref="K21:K28"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
